--- a/Logging_OREBRO_LAN/Logging_OREBRO/Översikt ÖREBRO.xlsx
+++ b/Logging_OREBRO_LAN/Logging_OREBRO/Översikt ÖREBRO.xlsx
@@ -572,7 +572,7 @@
         <v>45109</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45111</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>45111</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>45112</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45114</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>45114</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>45114</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -996,7 +996,7 @@
         <v>45114</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1058,7 +1058,7 @@
         <v>45114</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
         <v>45119</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         <v>45119</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1234,7 +1234,7 @@
         <v>45119</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         <v>45119</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         <v>45119</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>45119</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
         <v>45120</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1524,7 +1524,7 @@
         <v>45125</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         <v>45127</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>45127</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1710,7 +1710,7 @@
         <v>45131</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1767,7 +1767,7 @@
         <v>45131</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1829,7 +1829,7 @@
         <v>45132</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>45134</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1948,7 +1948,7 @@
         <v>45135</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>45135</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>45135</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>

--- a/Logging_OREBRO_LAN/Logging_OREBRO/Översikt ÖREBRO.xlsx
+++ b/Logging_OREBRO_LAN/Logging_OREBRO/Översikt ÖREBRO.xlsx
@@ -572,7 +572,7 @@
         <v>45109</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45111</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>45111</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>45112</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45114</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>45114</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>45114</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -996,7 +996,7 @@
         <v>45114</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1058,7 +1058,7 @@
         <v>45114</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
         <v>45119</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         <v>45119</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1234,7 +1234,7 @@
         <v>45119</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         <v>45119</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         <v>45119</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>45119</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
         <v>45120</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1524,7 +1524,7 @@
         <v>45125</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         <v>45127</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>45127</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1710,7 +1710,7 @@
         <v>45131</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1767,7 +1767,7 @@
         <v>45131</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1829,7 +1829,7 @@
         <v>45132</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>45134</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1948,7 +1948,7 @@
         <v>45135</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>45135</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>45135</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>

--- a/Logging_OREBRO_LAN/Logging_OREBRO/Översikt ÖREBRO.xlsx
+++ b/Logging_OREBRO_LAN/Logging_OREBRO/Översikt ÖREBRO.xlsx
@@ -572,7 +572,7 @@
         <v>45109</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45111</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>45111</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>45112</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45114</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>45114</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>45114</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -996,7 +996,7 @@
         <v>45114</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1058,7 +1058,7 @@
         <v>45114</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
         <v>45119</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         <v>45119</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1234,7 +1234,7 @@
         <v>45119</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         <v>45119</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         <v>45119</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>45119</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
         <v>45120</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1524,7 +1524,7 @@
         <v>45125</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         <v>45127</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>45127</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1710,7 +1710,7 @@
         <v>45131</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1767,7 +1767,7 @@
         <v>45131</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1829,7 +1829,7 @@
         <v>45132</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>45134</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1948,7 +1948,7 @@
         <v>45135</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>45135</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>45135</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>

--- a/Logging_OREBRO_LAN/Logging_OREBRO/Översikt ÖREBRO.xlsx
+++ b/Logging_OREBRO_LAN/Logging_OREBRO/Översikt ÖREBRO.xlsx
@@ -572,7 +572,7 @@
         <v>45109</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45111</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>45111</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>45112</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45114</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>45114</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>45114</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -996,7 +996,7 @@
         <v>45114</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1058,7 +1058,7 @@
         <v>45114</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
         <v>45119</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         <v>45119</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1234,7 +1234,7 @@
         <v>45119</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         <v>45119</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         <v>45119</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>45119</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
         <v>45120</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1524,7 +1524,7 @@
         <v>45125</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         <v>45127</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>45127</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1710,7 +1710,7 @@
         <v>45131</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1767,7 +1767,7 @@
         <v>45131</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1829,7 +1829,7 @@
         <v>45132</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>45134</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1948,7 +1948,7 @@
         <v>45135</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>45135</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>45135</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>

--- a/Logging_OREBRO_LAN/Logging_OREBRO/Översikt ÖREBRO.xlsx
+++ b/Logging_OREBRO_LAN/Logging_OREBRO/Översikt ÖREBRO.xlsx
@@ -572,7 +572,7 @@
         <v>45109</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45111</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>45111</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>45112</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45114</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>45114</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>45114</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -996,7 +996,7 @@
         <v>45114</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1058,7 +1058,7 @@
         <v>45114</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
         <v>45119</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         <v>45119</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1234,7 +1234,7 @@
         <v>45119</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         <v>45119</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         <v>45119</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>45119</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
         <v>45120</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1524,7 +1524,7 @@
         <v>45125</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         <v>45127</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>45127</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1710,7 +1710,7 @@
         <v>45131</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1767,7 +1767,7 @@
         <v>45131</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1829,7 +1829,7 @@
         <v>45132</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>45134</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1948,7 +1948,7 @@
         <v>45135</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>45135</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>45135</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>

--- a/Logging_OREBRO_LAN/Logging_OREBRO/Översikt ÖREBRO.xlsx
+++ b/Logging_OREBRO_LAN/Logging_OREBRO/Översikt ÖREBRO.xlsx
@@ -572,7 +572,7 @@
         <v>45109</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45111</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>45111</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>45112</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45114</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>45114</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>45114</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -996,7 +996,7 @@
         <v>45114</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1058,7 +1058,7 @@
         <v>45114</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
         <v>45119</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         <v>45119</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1234,7 +1234,7 @@
         <v>45119</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         <v>45119</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         <v>45119</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>45119</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
         <v>45120</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1524,7 +1524,7 @@
         <v>45125</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         <v>45127</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>45127</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1710,7 +1710,7 @@
         <v>45131</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1767,7 +1767,7 @@
         <v>45131</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1829,7 +1829,7 @@
         <v>45132</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>45134</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1948,7 +1948,7 @@
         <v>45135</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>45135</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>45135</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>

--- a/Logging_OREBRO_LAN/Logging_OREBRO/Översikt ÖREBRO.xlsx
+++ b/Logging_OREBRO_LAN/Logging_OREBRO/Översikt ÖREBRO.xlsx
@@ -572,7 +572,7 @@
         <v>45109</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45111</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>45111</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>45112</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45114</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>45114</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>45114</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -996,7 +996,7 @@
         <v>45114</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1058,7 +1058,7 @@
         <v>45114</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
         <v>45119</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         <v>45119</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1234,7 +1234,7 @@
         <v>45119</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         <v>45119</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         <v>45119</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>45119</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
         <v>45120</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1524,7 +1524,7 @@
         <v>45125</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         <v>45127</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>45127</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1710,7 +1710,7 @@
         <v>45131</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1767,7 +1767,7 @@
         <v>45131</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1829,7 +1829,7 @@
         <v>45132</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>45134</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1948,7 +1948,7 @@
         <v>45135</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>45135</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>45135</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>

--- a/Logging_OREBRO_LAN/Logging_OREBRO/Översikt ÖREBRO.xlsx
+++ b/Logging_OREBRO_LAN/Logging_OREBRO/Översikt ÖREBRO.xlsx
@@ -572,7 +572,7 @@
         <v>45109</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45111</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>45111</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>45112</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45114</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>45114</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>45114</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -996,7 +996,7 @@
         <v>45114</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1058,7 +1058,7 @@
         <v>45114</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
         <v>45119</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         <v>45119</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1234,7 +1234,7 @@
         <v>45119</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         <v>45119</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         <v>45119</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>45119</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
         <v>45120</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1524,7 +1524,7 @@
         <v>45125</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         <v>45127</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>45127</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1710,7 +1710,7 @@
         <v>45131</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1767,7 +1767,7 @@
         <v>45131</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1829,7 +1829,7 @@
         <v>45132</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>45134</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1948,7 +1948,7 @@
         <v>45135</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>45135</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>45135</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>

--- a/Logging_OREBRO_LAN/Logging_OREBRO/Översikt ÖREBRO.xlsx
+++ b/Logging_OREBRO_LAN/Logging_OREBRO/Översikt ÖREBRO.xlsx
@@ -572,7 +572,7 @@
         <v>45109</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45111</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>45111</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>45112</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45114</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>45114</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>45114</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -996,7 +996,7 @@
         <v>45114</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1058,7 +1058,7 @@
         <v>45114</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
         <v>45119</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         <v>45119</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1234,7 +1234,7 @@
         <v>45119</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         <v>45119</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         <v>45119</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>45119</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
         <v>45120</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1524,7 +1524,7 @@
         <v>45125</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         <v>45127</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>45127</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1710,7 +1710,7 @@
         <v>45131</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1767,7 +1767,7 @@
         <v>45131</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1829,7 +1829,7 @@
         <v>45132</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>45134</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1948,7 +1948,7 @@
         <v>45135</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>45135</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>45135</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>

--- a/Logging_OREBRO_LAN/Logging_OREBRO/Översikt ÖREBRO.xlsx
+++ b/Logging_OREBRO_LAN/Logging_OREBRO/Översikt ÖREBRO.xlsx
@@ -572,7 +572,7 @@
         <v>45109</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45111</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>45111</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>45112</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45114</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>45114</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>45114</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -996,7 +996,7 @@
         <v>45114</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1058,7 +1058,7 @@
         <v>45114</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
         <v>45119</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         <v>45119</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1234,7 +1234,7 @@
         <v>45119</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         <v>45119</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         <v>45119</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>45119</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
         <v>45120</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1524,7 +1524,7 @@
         <v>45125</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         <v>45127</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>45127</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1710,7 +1710,7 @@
         <v>45131</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1767,7 +1767,7 @@
         <v>45131</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1829,7 +1829,7 @@
         <v>45132</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>45134</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1948,7 +1948,7 @@
         <v>45135</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>45135</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>45135</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>

--- a/Logging_OREBRO_LAN/Logging_OREBRO/Översikt ÖREBRO.xlsx
+++ b/Logging_OREBRO_LAN/Logging_OREBRO/Översikt ÖREBRO.xlsx
@@ -572,7 +572,7 @@
         <v>45109</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45111</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>45111</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>45112</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45114</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>45114</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>45114</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -996,7 +996,7 @@
         <v>45114</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1058,7 +1058,7 @@
         <v>45114</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
         <v>45119</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         <v>45119</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1234,7 +1234,7 @@
         <v>45119</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         <v>45119</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         <v>45119</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>45119</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
         <v>45120</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1524,7 +1524,7 @@
         <v>45125</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         <v>45127</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>45127</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1710,7 +1710,7 @@
         <v>45131</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1767,7 +1767,7 @@
         <v>45131</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1829,7 +1829,7 @@
         <v>45132</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>45134</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1948,7 +1948,7 @@
         <v>45135</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>45135</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>45135</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>

--- a/Logging_OREBRO_LAN/Logging_OREBRO/Översikt ÖREBRO.xlsx
+++ b/Logging_OREBRO_LAN/Logging_OREBRO/Översikt ÖREBRO.xlsx
@@ -572,7 +572,7 @@
         <v>45109</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45111</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>45111</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>45112</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45114</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>45114</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>45114</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -996,7 +996,7 @@
         <v>45114</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1058,7 +1058,7 @@
         <v>45114</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
         <v>45119</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         <v>45119</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1234,7 +1234,7 @@
         <v>45119</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         <v>45119</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         <v>45119</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>45119</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
         <v>45120</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1524,7 +1524,7 @@
         <v>45125</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         <v>45127</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>45127</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1710,7 +1710,7 @@
         <v>45131</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1767,7 +1767,7 @@
         <v>45131</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1829,7 +1829,7 @@
         <v>45132</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>45134</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1948,7 +1948,7 @@
         <v>45135</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>45135</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>45135</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>

--- a/Logging_OREBRO_LAN/Logging_OREBRO/Översikt ÖREBRO.xlsx
+++ b/Logging_OREBRO_LAN/Logging_OREBRO/Översikt ÖREBRO.xlsx
@@ -572,7 +572,7 @@
         <v>45109</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45111</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>45111</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>45112</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45114</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>45114</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>45114</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -996,7 +996,7 @@
         <v>45114</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1058,7 +1058,7 @@
         <v>45114</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
         <v>45119</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         <v>45119</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1234,7 +1234,7 @@
         <v>45119</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         <v>45119</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         <v>45119</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>45119</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
         <v>45120</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1524,7 +1524,7 @@
         <v>45125</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         <v>45127</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>45127</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1710,7 +1710,7 @@
         <v>45131</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1767,7 +1767,7 @@
         <v>45131</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1829,7 +1829,7 @@
         <v>45132</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>45134</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1948,7 +1948,7 @@
         <v>45135</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>45135</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>45135</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>

--- a/Logging_OREBRO_LAN/Logging_OREBRO/Översikt ÖREBRO.xlsx
+++ b/Logging_OREBRO_LAN/Logging_OREBRO/Översikt ÖREBRO.xlsx
@@ -572,7 +572,7 @@
         <v>45109</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45111</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>45111</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>45112</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45114</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>45114</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>45114</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -996,7 +996,7 @@
         <v>45114</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1058,7 +1058,7 @@
         <v>45114</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
         <v>45119</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         <v>45119</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1234,7 +1234,7 @@
         <v>45119</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         <v>45119</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         <v>45119</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>45119</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
         <v>45120</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1524,7 +1524,7 @@
         <v>45125</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         <v>45127</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>45127</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1710,7 +1710,7 @@
         <v>45131</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1767,7 +1767,7 @@
         <v>45131</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1829,7 +1829,7 @@
         <v>45132</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>45134</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1948,7 +1948,7 @@
         <v>45135</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>45135</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>45135</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
